--- a/admin/files/studentsSheet.xlsx
+++ b/admin/files/studentsSheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30c0a138460f6761/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\local101-main\admin\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FFAA8D-BF58-4349-BB18-741615934002}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E074C292-DBBE-49FC-918F-D80754BA5464}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E00B866B-CE3C-4BC2-803E-084C9A3577FE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>FirstName</t>
   </si>
@@ -36,41 +36,77 @@
     <t>USN</t>
   </si>
   <si>
-    <t>Roll No</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Alice</t>
+    <t>Uday</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>2BL17ME131</t>
+  </si>
+  <si>
+    <t>Vishal</t>
+  </si>
+  <si>
+    <t>Agasar</t>
+  </si>
+  <si>
+    <t>2BL17ME132</t>
+  </si>
+  <si>
+    <t>Sarvesh</t>
+  </si>
+  <si>
+    <t>Goddagi</t>
+  </si>
+  <si>
+    <t>2BL17ME133</t>
+  </si>
+  <si>
+    <t>2BL17ME134</t>
+  </si>
+  <si>
+    <t>2BL17ME135</t>
+  </si>
+  <si>
+    <t>2BL17ME136</t>
+  </si>
+  <si>
+    <t>2BL17ME137</t>
+  </si>
+  <si>
+    <t>2BL17ME138</t>
+  </si>
+  <si>
+    <t>2BL17ME139</t>
+  </si>
+  <si>
+    <t>2BL17ME140</t>
+  </si>
+  <si>
+    <t>2BL17ME141</t>
+  </si>
+  <si>
+    <t>Roll_No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,7 +169,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -144,7 +181,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -191,23 +228,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -243,23 +263,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,14 +414,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7340B958-96F4-42D4-A017-1CC1646A735C}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -431,27 +438,27 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2">
-        <v>1111</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>11111998</v>
+      <c r="E2" s="1">
+        <v>2081999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -461,51 +468,171 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>1112</v>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>10101998</v>
+      <c r="E3" s="1">
+        <v>2081999</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1113</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>12121999</v>
+      <c r="E4" s="1">
+        <v>2081999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2081999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1114</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>1042001</v>
+      <c r="E12" s="1">
+        <v>2081999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>